--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cube8\practice-site\data\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cube8\practice-site\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3876CB-4946-4E9B-AEC8-B713FBED81F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF1EAD3-0946-4A6A-8D7F-ED57E6306E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4515" yWindow="1905" windowWidth="21600" windowHeight="8805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1830" yWindow="660" windowWidth="16620" windowHeight="9195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="78">
   <si>
     <t>id</t>
   </si>
@@ -48,21 +48,9 @@
     <t>image</t>
   </si>
   <si>
-    <t>Набор тарелок керамических</t>
-  </si>
-  <si>
-    <t>Классический набор из 6 тарелок</t>
-  </si>
-  <si>
     <t>plates.jpg</t>
   </si>
   <si>
-    <t>Стаканы стеклянные</t>
-  </si>
-  <si>
-    <t>Стильный набор стаканов из закалённого стекла</t>
-  </si>
-  <si>
     <t>glass.jpg</t>
   </si>
   <si>
@@ -87,10 +75,194 @@
     <t>Губки для мытья</t>
   </si>
   <si>
-    <t>Губки для мытья цветные 20 шт</t>
-  </si>
-  <si>
     <t>sponges.jpg</t>
+  </si>
+  <si>
+    <t>Набор посуды столовой на 6 персон</t>
+  </si>
+  <si>
+    <t>Классический белый столовый сервиз на 6 персон, P. L. Proff Cuisine. Набор посуды включает: тарелка 20,3 см 6 шт, тарелка 25,5 см 6 шт, салатник 700 мл 6 шт.</t>
+  </si>
+  <si>
+    <t>Набор высоких стаканов Tango F&amp;D</t>
+  </si>
+  <si>
+    <t>Набор высоких стаканов для сока, для воды, для пива и других напитков Tango F&amp;D объем 440 мл 6 штук от известного бренда F&amp;D изготовлены из качественного натрий-кальций-силикатного стекла.</t>
+  </si>
+  <si>
+    <t>stolovpribor24.jpg</t>
+  </si>
+  <si>
+    <t>Столовые приборы изготовлены на Павловском заводе им. Кирова (г. Павлово-на-Оке, Нижегородская обл.) из высококачественной нержавеющей стали AISI 430. Клинки ножей производят из высококачественной нержавеющей стали марки 40x13. Все изделия соответствуют ГОСТу Р 51687-2000. Приборы серии "Императорский" отличаются роскошным орнаментом в стие эпохи Возрождения с отдельными элементами русской классической живописи. Набор состоит из 24 предметов на 6 персон и продается в фирменной упаковке.</t>
+  </si>
+  <si>
+    <t>castrul6.jpg</t>
+  </si>
+  <si>
+    <t>Набор кастрюль с крышками разных объемов должен быть на каждой кухне. Комплект состоит из четырех «ходовых» кастрюль (объем 1.9 л, 2.5 л, 3.6 л, 6.1 л.), одного ковша (объем 1.9 л) и сотейника (объем 2.9 л).</t>
+  </si>
+  <si>
+    <t>Набор кастрюль KONONO из нержавеющей стали с крышками, с толстым дном для индукционной, газовой, электрической плиты 6 шт.</t>
+  </si>
+  <si>
+    <t>Набор столовых приборов, серия Императорский, 24 предмета</t>
+  </si>
+  <si>
+    <t>knifes5.jpg</t>
+  </si>
+  <si>
+    <t>Набор ножей кухонных, ножи кухонные Katana, 5 предметов</t>
+  </si>
+  <si>
+    <t>Нож универсальный -23,5 см; нож универсальный -21 см; поварской нож- 34 см; разделочный нож – 33,5 см; нож для хлеба – 32 см</t>
+  </si>
+  <si>
+    <t>postbel1.5.jpg</t>
+  </si>
+  <si>
+    <t>Постельное Белье 1.5-спальное Наволочки 50х70 2 шт. Бязь Ночь Нежна "Письма". Название материала:
+Бязь. Состав материала: Хлопок. Размер пододеяльника/одеяла 145x215. Размер наволочки 50x70. Размер простыни 150x214.</t>
+  </si>
+  <si>
+    <t>Постельное белье 1.5-спальное</t>
+  </si>
+  <si>
+    <t>Постельное белье 2-спальное</t>
+  </si>
+  <si>
+    <t>postbel2.jpg</t>
+  </si>
+  <si>
+    <t>Постельное белье Бязь Шик 504 2-спальное. Название материала: Бязь. Состав материала: Хлопок. Размер пододеяльника/одеяла 175x215. Размер наволочки 70x70. Размер простыни 200x215.</t>
+  </si>
+  <si>
+    <t>pe-bamboo.jpg</t>
+  </si>
+  <si>
+    <t>Подушка из бамбука</t>
+  </si>
+  <si>
+    <t>Подушка из бамбука 2 шт. Жеткость средняя. Наполнитель: бамбуковое волокно, силиконизированное волокно. Размер 50х70.</t>
+  </si>
+  <si>
+    <t>poloten3.jpg</t>
+  </si>
+  <si>
+    <t>Набор полотенец махровых 3 шт.</t>
+  </si>
+  <si>
+    <t>Набор полотенец махровых 3 шт. "Cotton Dreams" голубой/elite 40*60 см, 50*100 см, 70*140 см</t>
+  </si>
+  <si>
+    <t>time.jpg</t>
+  </si>
+  <si>
+    <t>Настенные часы "Михаил Москвин", коллекция: Классика</t>
+  </si>
+  <si>
+    <t>Тип:Настенные часы. Тип часов: Кварцевые. Диаметр, см 30. Тип индикации: Арабские цифры. Питание часов: Сменная батарея.</t>
+  </si>
+  <si>
+    <t>decorpillow.jpg</t>
+  </si>
+  <si>
+    <t>Подушка декоративная 2 шт бирюзовая</t>
+  </si>
+  <si>
+    <t>Подушка декоративная 2 шт бирюзовая, декоративные подушки 40x40 на диван 2 шт бирюзовые</t>
+  </si>
+  <si>
+    <t>vase2.jpg</t>
+  </si>
+  <si>
+    <t>Ваза "деревянная подставка", 31 см , Стекло, ABS пластик, 1 шт</t>
+  </si>
+  <si>
+    <t>Ваза стеклянная</t>
+  </si>
+  <si>
+    <t>shotordecor.jpg</t>
+  </si>
+  <si>
+    <t>Шторы межкомнатные декоративные Д-002</t>
+  </si>
+  <si>
+    <t>Шторы межкомнатные декоративные Д-002. Размер: 1х2м. Нитей: 18шт. Материал: дерево 90%, пластик 10%. Цвет:венге+белое кольцо. Высоту и ширину штор можно легко регулировать убрав или добавив несколько элементов.</t>
+  </si>
+  <si>
+    <t>Губки для мытья бежево-белые 5 шт</t>
+  </si>
+  <si>
+    <t>salfetki.jpg</t>
+  </si>
+  <si>
+    <t>Салфетки для уборки</t>
+  </si>
+  <si>
+    <t>Салфетки для уборки вискоза 20 шт размер 30х38см</t>
+  </si>
+  <si>
+    <t>perchatki.jpg</t>
+  </si>
+  <si>
+    <t>Перчатки хозяйственные</t>
+  </si>
+  <si>
+    <t>Перчатки хозяйственные, размер M, 1 пара</t>
+  </si>
+  <si>
+    <t>musor.jpg</t>
+  </si>
+  <si>
+    <t>Мусорные пакеты</t>
+  </si>
+  <si>
+    <t>Мусорные пакеты 30 литров цветные мешки для мусора 60шт</t>
+  </si>
+  <si>
+    <t>vedro.jpg</t>
+  </si>
+  <si>
+    <t>Ведро</t>
+  </si>
+  <si>
+    <t>Ведро оцинкованное, хозяйственное. Объем: 15 л</t>
+  </si>
+  <si>
+    <t>lamp10.jpg</t>
+  </si>
+  <si>
+    <t>Лампочка светодиодная</t>
+  </si>
+  <si>
+    <t>Лампочка светодиодная E27 20ВТ</t>
+  </si>
+  <si>
+    <t>lamp3.jpg</t>
+  </si>
+  <si>
+    <t>Лампочки светодиодные филаментные 3шт, 9Вт 230В Е27 3000К золотистая, LED декоративные , винтаж/ Лампа Эдисона</t>
+  </si>
+  <si>
+    <t>lamp1.jpg</t>
+  </si>
+  <si>
+    <t>IMPITER Лампочка, Цоколь:E27, 9 Вт, Светодиодная</t>
+  </si>
+  <si>
+    <t>svet.jpg</t>
+  </si>
+  <si>
+    <t>Лампа настольная</t>
+  </si>
+  <si>
+    <t>Левитирующая лампа настольный светильник</t>
+  </si>
+  <si>
+    <t>svet1.jpg</t>
+  </si>
+  <si>
+    <t>Светильник прикроватный для комнаты в стиле лофт</t>
   </si>
 </sst>
 </file>
@@ -126,8 +298,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -408,18 +581,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" customWidth="1"/>
     <col min="5" max="5" width="46.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -450,16 +623,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2">
+        <v>12000</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2">
-        <v>2500</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -470,16 +643,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <v>850</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -487,19 +660,19 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>1800</v>
+        <v>14500</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -507,19 +680,19 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>3400</v>
+        <v>16000</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -527,22 +700,423 @@
         <v>5</v>
       </c>
       <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6">
+        <v>7500</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>1800</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8">
+        <v>1900</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9">
+        <v>2400</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10">
+        <v>1200</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11">
+        <v>2500</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>3400</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13">
+        <v>2900</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14">
+        <v>1800</v>
+      </c>
+      <c r="E14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15">
+        <v>2300</v>
+      </c>
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16">
+        <v>4700</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <v>190</v>
+      </c>
+      <c r="E17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18">
+        <v>420</v>
+      </c>
+      <c r="E18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="D6">
-        <v>400</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19">
+        <v>200</v>
+      </c>
+      <c r="E19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="F6" t="s">
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20">
+        <v>490</v>
+      </c>
+      <c r="E20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>20</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21">
+        <v>1970</v>
+      </c>
+      <c r="E21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22">
+        <v>800</v>
+      </c>
+      <c r="E22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23">
+        <v>1100</v>
+      </c>
+      <c r="E23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24">
+        <v>1300</v>
+      </c>
+      <c r="E24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25">
+        <v>6800</v>
+      </c>
+      <c r="E25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26">
+        <v>1600</v>
+      </c>
+      <c r="E26" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>